--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -473,12 +473,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>高现金毛利战法</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250113</t>
+          <t>20250115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,14 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>凌霄泵业</t>
+          <t>粤传媒</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>17.44</v>
+        <v>5.97</v>
       </c>
       <c r="G2" t="n">
-        <v>-76000</v>
+        <v>-336700</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250115</t>
+          <t>20250120</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,14 +493,47 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>粤传媒</t>
+          <t>四川长虹</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.97</v>
+        <v>9.09</v>
       </c>
       <c r="G2" t="n">
-        <v>-336700</v>
+        <v>-222500</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>岩山科技</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-505400</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,118 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>参考价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>数量</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250120</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>四川长虹</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-222500</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250120</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>岩山科技</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>-505400</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,14 +425,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>参考价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TMT资金流入战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>28.78</v>
+      </c>
+      <c r="G2" t="n">
+        <v>73100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,34 +473,166 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.69</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>京山轻机</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>TMT资金流入战法</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250210</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-28.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>BUY</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>沪深A股</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>紫光股份</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>28.78</v>
-      </c>
-      <c r="G2" t="n">
-        <v>73100</v>
+      <c r="F5" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>31.76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>金桥信息</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="G6" t="n">
+        <v>30.11</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,14 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>大连重工</t>
+          <t>京山轻机</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>12.91</v>
       </c>
       <c r="G2" t="n">
-        <v>30.69</v>
+        <v>30.74</v>
       </c>
     </row>
     <row r="3">
@@ -526,14 +526,14 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>京山轻机</t>
+          <t>大连重工</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12.91</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>31.2</v>
+        <v>30.61</v>
       </c>
     </row>
     <row r="4">
@@ -566,13 +566,13 @@
         <v>28.8</v>
       </c>
       <c r="G4" t="n">
-        <v>-28.45</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GPT定期精选</t>
+          <t>TMT资金流入战法</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BUY</t>
+          <t>SALE</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -599,7 +599,7 @@
         <v>28.8</v>
       </c>
       <c r="G5" t="n">
-        <v>31.76</v>
+        <v>-28.33</v>
       </c>
     </row>
     <row r="6">
@@ -632,7 +632,73 @@
         <v>18.28</v>
       </c>
       <c r="G6" t="n">
-        <v>30.11</v>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>金桥信息</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>18.28</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>20250214</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>紫光股份</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G8" t="n">
+        <v>31.81</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>20250214</t>
+          <t>20250221</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -493,14 +493,14 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>京山轻机</t>
+          <t>大连重工</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12.91</v>
+        <v>4.92</v>
       </c>
       <c r="G2" t="n">
-        <v>30.74</v>
+        <v>29.25</v>
       </c>
     </row>
     <row r="3">
@@ -511,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20250214</t>
+          <t>20250221</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -526,30 +526,30 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>大连重工</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5</v>
+        <v>45.69</v>
       </c>
       <c r="G3" t="n">
-        <v>30.61</v>
+        <v>32.14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TMT资金流入战法</t>
+          <t>连续五年优质股战法</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20250214</t>
+          <t>20250221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SALE</t>
+          <t>BUY</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -559,146 +559,14 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>紫光股份</t>
+          <t>京山轻机</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>28.8</v>
+        <v>13.43</v>
       </c>
       <c r="G4" t="n">
-        <v>-28.33</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TMT资金流入战法</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20250214</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>SALE</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>紫光股份</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="G5" t="n">
-        <v>-28.33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>20250214</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>金桥信息</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>20250214</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>金桥信息</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="G7" t="n">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>20250214</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>紫光股份</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="G8" t="n">
-        <v>31.81</v>
+        <v>31.53</v>
       </c>
     </row>
   </sheetData>

--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="策略今天调仓" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="策略今天调仓" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,151 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>参考价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250221</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>大连重工</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4.92</v>
-      </c>
-      <c r="G2" t="n">
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250221</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>英维克</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>45.69</v>
-      </c>
-      <c r="G3" t="n">
-        <v>32.14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250221</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>京山轻机</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="G4" t="n">
-        <v>31.53</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,14 +425,184 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>参考价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>大连重工</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>英维克</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>45.56</v>
+      </c>
+      <c r="G3" t="n">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>连续五年优质股战法</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>京山轻机</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="G4" t="n">
+        <v>29.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>20250228</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>超讯通信</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>50.97</v>
+      </c>
+      <c r="G5" t="n">
+        <v>33.76</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,184 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>参考价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250228</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>大连重工</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30.51</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>20250228</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>英维克</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>45.56</v>
-      </c>
-      <c r="G3" t="n">
-        <v>29.56</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>连续五年优质股战法</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20250228</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>京山轻机</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29.94</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>20250228</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>超讯通信</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>50.97</v>
-      </c>
-      <c r="G5" t="n">
-        <v>33.76</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,14 +425,85 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GPT定期精选</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250310</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>居然智家</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30.17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,85 +425,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>策略名称</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>时间</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>操作</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>市场</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票名称</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>最新价</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>新比例%</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GPT定期精选</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>20250310</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>BUY</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>沪深A股</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>居然智家</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4.42</v>
-      </c>
-      <c r="G2" t="n">
-        <v>30.17</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
+++ b/others/量化投资/THS/自动化交易_同花顺/data/策略今天调仓.xlsx
@@ -425,14 +425,118 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>策略名称</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>时间</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>操作</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>市场</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>最新价</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>新比例%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>低价小盘股战法</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>SALE</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>合金投资</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-26.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>低价小盘股战法</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>20250312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>BUY</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>沪深A股</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>华斯股份</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="G3" t="n">
+        <v>24.91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>